--- a/Experiments/simple_coordination/gender_fr/test_simple_gender_fr.xlsx
+++ b/Experiments/simple_coordination/gender_fr/test_simple_gender_fr.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6520" yWindow="0" windowWidth="23020" windowHeight="10400" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -711,198 +711,198 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Il dit que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils annoncent que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles disent que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>considérés</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>considérées</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>intéressants</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>intéressantes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils trouvent que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Je croyais que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles constatent que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils ont franchi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles ont cherché</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a subi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il a respecté</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a observé</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nous achetons</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nous avons</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils aiment</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles évitent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il réalise</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle recherche</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Det</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle pensait que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils ont dit que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a cru que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a annoncé que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ils croient que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles ont indiqué que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Je dis que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nous pensons que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ai acheté</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' apprécie</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nous avons découvert</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>réductions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elles approchent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>écrans</t>
+  </si>
+  <si>
+    <t>ordres</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Il a estimé que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elle a compris que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>taxes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>primes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>barrages</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ai vendu</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ignore</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>J' ai considéré que</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>spectacles</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>produits</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>produites</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Il dit que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils annoncent que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles disent que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>considérés</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>considérées</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>intéressants</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>intéressantes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils trouvent que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Je croyais que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles constatent que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils ont franchi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles ont cherché</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a subi</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Il a respecté</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a observé</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nous achetons</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nous avons</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils aiment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles évitent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Il réalise</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle recherche</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Det</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle pensait que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils ont dit que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a cru que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a annoncé que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ils croient que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles ont indiqué que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Je dis que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nous pensons que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' ai acheté</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' apprécie</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nous avons découvert</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>réductions</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elles approchent</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>écrans</t>
-  </si>
-  <si>
-    <t>ordres</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Il a estimé que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Elle a compris que</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>présentations</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>taxes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>primes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>barrages</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' ai vendu</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' ignore</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>J' ai considéré que</t>
+    <t>cérémonies</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>différents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>différentes</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1030,8 +1030,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1075,7 +1089,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="29">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -1084,6 +1098,13 @@
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1091,6 +1112,13 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1490,7 +1518,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1517,7 +1545,7 @@
         <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1549,7 +1577,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>199</v>
@@ -1587,10 +1615,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1626,10 +1654,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1666,7 +1694,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>200</v>
@@ -1704,10 +1732,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1742,10 +1770,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="14" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1785,7 +1813,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1846,7 +1874,7 @@
         <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J9" t="s">
         <v>208</v>
@@ -1862,7 +1890,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="14" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>202</v>
@@ -1883,7 +1911,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I10" t="s">
         <v>53</v>
@@ -1903,7 +1931,7 @@
         <v>209</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -1938,10 +1966,10 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -1950,7 +1978,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
@@ -1959,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="I12" t="s">
         <v>60</v>
@@ -1968,18 +1996,18 @@
         <v>208</v>
       </c>
       <c r="K12" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="L12" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2014,10 +2042,10 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -2052,7 +2080,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>203</v>
@@ -2090,10 +2118,10 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="10" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C16" t="s">
         <v>9</v>
@@ -2128,7 +2156,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>204</v>
@@ -2187,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I18" t="s">
         <v>88</v>
@@ -2207,7 +2235,7 @@
         <v>91</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -2234,18 +2262,18 @@
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="18">
       <c r="A20" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -2254,7 +2282,7 @@
         <v>96</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
         <v>2</v>
@@ -2266,7 +2294,7 @@
         <v>97</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="J20" t="s">
         <v>6</v>
@@ -2280,10 +2308,10 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
@@ -2310,26 +2338,26 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
         <v>104</v>
@@ -2361,7 +2389,7 @@
         <v>109</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -2396,10 +2424,10 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -2434,10 +2462,10 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
